--- a/EYZWG9_0319/eyzwg9.xlsx
+++ b/EYZWG9_0319/eyzwg9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OKGitOS\EYZWG9_0319\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4FDCCA-AA9D-4B84-8C08-3DD870EDAC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC9BA94-67E1-47E6-B92F-C9790BE8F495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{5422C73C-7734-4B58-B262-DA142F24F4EC}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>FCFS</t>
   </si>
@@ -107,6 +106,12 @@
   </si>
   <si>
     <t>Végrehajtási sorrend</t>
+  </si>
+  <si>
+    <t>Folyamat</t>
+  </si>
+  <si>
+    <t>Futás</t>
   </si>
 </sst>
 </file>
@@ -269,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,7 +294,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -298,22 +303,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,16 +318,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,6 +347,2030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>FCFS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Várakozás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$B$19:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84D3-4C1E-A371-BC236A834EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Futás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$A$19:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$C$19:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84D3-4C1E-A371-BC236A834EB9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="130879152"/>
+        <c:axId val="130878192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130879152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130878192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130878192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130879152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>SJF</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Várakozás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C40-4A43-840F-4C729A00CBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Futás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$19:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C40-4A43-840F-4C729A00CBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="141317696"/>
+        <c:axId val="141323456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="141317696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141323456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="141323456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="141317696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE90A15-471B-BD48-392D-C9027CEC652C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46178718-769C-F1E5-1C7A-2E5F4905A1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B2EB74-F938-469D-B547-661E185F272F}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +2788,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7">
@@ -784,51 +2808,61 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7">
@@ -840,7 +2874,7 @@
       <c r="D11" s="7">
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <f>C11+D11</f>
         <v>3</v>
       </c>
@@ -848,10 +2882,12 @@
         <f>D11-B11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7">
@@ -863,7 +2899,7 @@
       <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <f t="shared" ref="E12:E15" si="0">C12+D12</f>
         <v>10</v>
       </c>
@@ -871,10 +2907,12 @@
         <f t="shared" ref="F12:F15" si="1">D12-B12</f>
         <v>4</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="7">
@@ -886,7 +2924,7 @@
       <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -894,22 +2932,24 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="7">
         <v>9</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="7">
         <v>5</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="7">
         <v>10</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -917,10 +2957,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2">
@@ -932,7 +2974,7 @@
       <c r="D15" s="2">
         <v>15</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -940,7 +2982,129 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4</v>
+      </c>
+      <c r="G20" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7">
+        <v>8</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7">
+        <v>20</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="7">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="7">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -948,5 +3112,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>